--- a/data/raw/Unemployment_Rate_data.xlsx
+++ b/data/raw/Unemployment_Rate_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
     <t xml:space="preserve">realtime_start</t>
   </si>
@@ -29,529 +29,493 @@
     <t xml:space="preserve">2025-02-22</t>
   </si>
   <si>
-    <t xml:space="preserve">2005-01-01</t>
+    <t xml:space="preserve">2006-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-06-01</t>
   </si>
   <si>
     <t xml:space="preserve">5.3</t>
   </si>
   <si>
-    <t xml:space="preserve">2005-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-03-01</t>
+    <t xml:space="preserve">2015-07-01</t>
   </si>
   <si>
     <t xml:space="preserve">5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-01</t>
   </si>
   <si>
     <t xml:space="preserve">2015-08-01</t>
@@ -1326,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1337,10 +1301,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1351,10 +1315,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -1365,10 +1329,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -1379,10 +1343,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1393,10 +1357,10 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1407,10 +1371,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1421,10 +1385,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1435,10 +1399,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -1449,10 +1413,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1463,10 +1427,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -1477,10 +1441,10 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -1491,10 +1455,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -1505,10 +1469,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -1519,10 +1483,10 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
@@ -1533,10 +1497,10 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1547,10 +1511,10 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1561,10 +1525,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1575,10 +1539,10 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1589,10 +1553,10 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1603,10 +1567,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1617,10 +1581,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1631,10 +1595,10 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -1645,10 +1609,10 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
@@ -1659,10 +1623,10 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -1673,10 +1637,10 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -1687,10 +1651,10 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
@@ -1701,10 +1665,10 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
@@ -1715,10 +1679,10 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
         <v>46</v>
-      </c>
-      <c r="D32" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="33">
@@ -1732,7 +1696,7 @@
         <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34">
@@ -1743,10 +1707,10 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
         <v>48</v>
-      </c>
-      <c r="D34" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="35">
@@ -1757,10 +1721,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
@@ -1771,10 +1735,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37">
@@ -1785,10 +1749,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
@@ -1799,10 +1763,10 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39">
@@ -1813,10 +1777,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40">
@@ -1827,10 +1791,10 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41">
@@ -1841,10 +1805,10 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42">
@@ -1855,10 +1819,10 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
@@ -1869,10 +1833,10 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44">
@@ -1883,10 +1847,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45">
@@ -1897,10 +1861,10 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46">
@@ -1911,10 +1875,10 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47">
@@ -1925,10 +1889,10 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
@@ -1939,10 +1903,10 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
@@ -1953,10 +1917,10 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
@@ -1967,10 +1931,10 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
@@ -1981,10 +1945,10 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s">
         <v>72</v>
-      </c>
-      <c r="D51" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="52">
@@ -1995,10 +1959,10 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
@@ -2009,10 +1973,10 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" t="s">
         <v>76</v>
-      </c>
-      <c r="D53" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -2023,10 +1987,10 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55">
@@ -2037,10 +2001,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56">
@@ -2051,10 +2015,10 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57">
@@ -2065,10 +2029,10 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58">
@@ -2079,10 +2043,10 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2060,7 @@
         <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60">
@@ -2107,10 +2071,10 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61">
@@ -2121,7 +2085,7 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D61" t="s">
         <v>90</v>
@@ -2135,10 +2099,10 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" t="s">
         <v>92</v>
-      </c>
-      <c r="D62" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="63">
@@ -2152,7 +2116,7 @@
         <v>93</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64">
@@ -2166,7 +2130,7 @@
         <v>94</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65">
@@ -2180,7 +2144,7 @@
         <v>95</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66">
@@ -2194,7 +2158,7 @@
         <v>96</v>
       </c>
       <c r="D66" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67">
@@ -2208,7 +2172,7 @@
         <v>97</v>
       </c>
       <c r="D67" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68">
@@ -2222,7 +2186,7 @@
         <v>98</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69">
@@ -2236,7 +2200,7 @@
         <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70">
@@ -2250,7 +2214,7 @@
         <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71">
@@ -2264,7 +2228,7 @@
         <v>101</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72">
@@ -2275,10 +2239,10 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D72" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73">
@@ -2289,10 +2253,10 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74">
@@ -2303,10 +2267,10 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D74" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75">
@@ -2317,10 +2281,10 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D75" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76">
@@ -2331,10 +2295,10 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D76" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77">
@@ -2345,10 +2309,10 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78">
@@ -2359,10 +2323,10 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D78" t="s">
         <v>110</v>
-      </c>
-      <c r="D78" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="79">
@@ -2373,10 +2337,10 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80">
@@ -2387,10 +2351,10 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D80" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81">
@@ -2401,10 +2365,10 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D81" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82">
@@ -2415,10 +2379,10 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D82" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83">
@@ -2429,10 +2393,10 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84">
@@ -2443,10 +2407,10 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D84" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85">
@@ -2457,10 +2421,10 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D85" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86">
@@ -2471,10 +2435,10 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D86" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87">
@@ -2485,10 +2449,10 @@
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D87" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88">
@@ -2499,10 +2463,10 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D88" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89">
@@ -2513,10 +2477,10 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90">
@@ -2527,10 +2491,10 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91">
@@ -2541,10 +2505,10 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" t="s">
         <v>127</v>
-      </c>
-      <c r="D91" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="92">
@@ -2555,10 +2519,10 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D92" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93">
@@ -2569,10 +2533,10 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D93" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94">
@@ -2583,10 +2547,10 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D94" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95">
@@ -2597,10 +2561,10 @@
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D95" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96">
@@ -2611,10 +2575,10 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D96" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97">
@@ -2625,10 +2589,10 @@
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D97" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98">
@@ -2639,10 +2603,10 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D98" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99">
@@ -2653,10 +2617,10 @@
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D99" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100">
@@ -2667,10 +2631,10 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100" t="s">
         <v>140</v>
-      </c>
-      <c r="D100" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="101">
@@ -2681,10 +2645,10 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D101" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102">
@@ -2695,10 +2659,10 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D102" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
@@ -2709,10 +2673,10 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D103" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104">
@@ -2723,10 +2687,10 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
+        <v>150</v>
+      </c>
+      <c r="D104" t="s">
         <v>146</v>
-      </c>
-      <c r="D104" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="105">
@@ -2737,10 +2701,10 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D105" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106">
@@ -2751,10 +2715,10 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D106" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107">
@@ -2765,10 +2729,10 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D107" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
@@ -2779,10 +2743,10 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D108" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109">
@@ -2793,10 +2757,10 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D109" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110">
@@ -2807,10 +2771,10 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
+        <v>158</v>
+      </c>
+      <c r="D110" t="s">
         <v>155</v>
-      </c>
-      <c r="D110" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="111">
@@ -2821,10 +2785,10 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D111" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
@@ -2835,10 +2799,10 @@
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D112" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113">
@@ -2849,10 +2813,10 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D113" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114">
@@ -2863,10 +2827,10 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D114" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115">
@@ -2877,10 +2841,10 @@
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D115" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116">
@@ -2891,10 +2855,10 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D116" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117">
@@ -2905,10 +2869,10 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D117" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118">
@@ -2919,10 +2883,10 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D118" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
@@ -2933,10 +2897,10 @@
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D119" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
@@ -2947,10 +2911,10 @@
         <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D120" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121">
@@ -2961,10 +2925,10 @@
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D121" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
@@ -2975,10 +2939,10 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D122" t="s">
-        <v>169</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
@@ -2989,10 +2953,10 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D123" t="s">
-        <v>174</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124">
@@ -3006,7 +2970,7 @@
         <v>175</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125">
@@ -3020,7 +2984,7 @@
         <v>176</v>
       </c>
       <c r="D125" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126">
@@ -3034,7 +2998,7 @@
         <v>177</v>
       </c>
       <c r="D126" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127">
@@ -3048,7 +3012,7 @@
         <v>178</v>
       </c>
       <c r="D127" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128">
@@ -3062,7 +3026,7 @@
         <v>179</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129">
@@ -3076,7 +3040,7 @@
         <v>180</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130">
@@ -3090,7 +3054,7 @@
         <v>181</v>
       </c>
       <c r="D130" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131">
@@ -3104,7 +3068,7 @@
         <v>182</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132">
@@ -3118,7 +3082,7 @@
         <v>183</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
@@ -3132,7 +3096,7 @@
         <v>184</v>
       </c>
       <c r="D133" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134">
@@ -3146,7 +3110,7 @@
         <v>185</v>
       </c>
       <c r="D134" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135">
@@ -3160,7 +3124,7 @@
         <v>186</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136">
@@ -3174,7 +3138,7 @@
         <v>187</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137">
@@ -3188,7 +3152,7 @@
         <v>188</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138">
@@ -3202,7 +3166,7 @@
         <v>189</v>
       </c>
       <c r="D138" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139">
@@ -3216,7 +3180,7 @@
         <v>190</v>
       </c>
       <c r="D139" t="s">
-        <v>18</v>
+        <v>191</v>
       </c>
     </row>
     <row r="140">
@@ -3227,10 +3191,10 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
+        <v>192</v>
+      </c>
+      <c r="D140" t="s">
         <v>191</v>
-      </c>
-      <c r="D140" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="141">
@@ -3241,10 +3205,10 @@
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D141" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142">
@@ -3255,10 +3219,10 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
     </row>
     <row r="143">
@@ -3269,10 +3233,10 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D143" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
     </row>
     <row r="144">
@@ -3283,10 +3247,10 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D144" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
     </row>
     <row r="145">
@@ -3297,10 +3261,10 @@
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
     </row>
     <row r="146">
@@ -3311,10 +3275,10 @@
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
     </row>
     <row r="147">
@@ -3325,10 +3289,10 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D147" t="s">
-        <v>30</v>
+        <v>199</v>
       </c>
     </row>
     <row r="148">
@@ -3339,10 +3303,10 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D148" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
     </row>
     <row r="149">
@@ -3353,10 +3317,10 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D149" t="s">
-        <v>37</v>
+        <v>201</v>
       </c>
     </row>
     <row r="150">
@@ -3367,10 +3331,10 @@
         <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D150" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151">
@@ -3381,10 +3345,10 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D151" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152">
@@ -3395,10 +3359,10 @@
         <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D152" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="153">
@@ -3409,10 +3373,10 @@
         <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D153" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
     </row>
     <row r="154">
@@ -3423,10 +3387,10 @@
         <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D154" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155">
@@ -3437,10 +3401,10 @@
         <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D155" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="156">
@@ -3451,10 +3415,10 @@
         <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D156" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="157">
@@ -3465,10 +3429,10 @@
         <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D157" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="158">
@@ -3479,10 +3443,10 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D158" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="159">
@@ -3493,10 +3457,10 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D159" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="160">
@@ -3507,10 +3471,10 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D160" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161">
@@ -3521,10 +3485,10 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D161" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="162">
@@ -3535,10 +3499,10 @@
         <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D162" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="163">
@@ -3549,10 +3513,10 @@
         <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D163" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="164">
@@ -3563,10 +3527,10 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D164" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="165">
@@ -3577,10 +3541,10 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
+        <v>224</v>
+      </c>
+      <c r="D165" t="s">
         <v>221</v>
-      </c>
-      <c r="D165" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="166">
@@ -3591,10 +3555,10 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D166" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="167">
@@ -3605,10 +3569,10 @@
         <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D167" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="168">
@@ -3619,10 +3583,10 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D168" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="169">
@@ -3633,10 +3597,10 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D169" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="170">
@@ -3647,10 +3611,10 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D170" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171">
@@ -3661,10 +3625,10 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D171" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="172">
@@ -3675,10 +3639,10 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D172" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173">
@@ -3689,10 +3653,10 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D173" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="174">
@@ -3703,10 +3667,10 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D174" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="175">
@@ -3717,10 +3681,10 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D175" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="176">
@@ -3731,10 +3695,10 @@
         <v>4</v>
       </c>
       <c r="C176" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D176" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="177">
@@ -3745,10 +3709,10 @@
         <v>4</v>
       </c>
       <c r="C177" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D177" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="178">
@@ -3759,10 +3723,10 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D178" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179">
@@ -3773,10 +3737,10 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D179" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180">
@@ -3787,10 +3751,10 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D180" t="s">
-        <v>233</v>
+        <v>140</v>
       </c>
     </row>
     <row r="181">
@@ -3801,10 +3765,10 @@
         <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D181" t="s">
-        <v>233</v>
+        <v>140</v>
       </c>
     </row>
     <row r="182">
@@ -3815,10 +3779,10 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D182" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="183">
@@ -3829,10 +3793,10 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D183" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
     </row>
     <row r="184">
@@ -3843,10 +3807,10 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D184" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="185">
@@ -3857,10 +3821,10 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D185" t="s">
-        <v>246</v>
+        <v>48</v>
       </c>
     </row>
     <row r="186">
@@ -3871,10 +3835,10 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D186" t="s">
-        <v>248</v>
+        <v>46</v>
       </c>
     </row>
     <row r="187">
@@ -3885,10 +3849,10 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D187" t="s">
-        <v>250</v>
+        <v>153</v>
       </c>
     </row>
     <row r="188">
@@ -3899,10 +3863,10 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D188" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
     </row>
     <row r="189">
@@ -3913,10 +3877,10 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D189" t="s">
-        <v>254</v>
+        <v>39</v>
       </c>
     </row>
     <row r="190">
@@ -3927,10 +3891,10 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D190" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191">
@@ -3941,10 +3905,10 @@
         <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D191" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192">
@@ -3955,10 +3919,10 @@
         <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D192" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193">
@@ -3969,10 +3933,10 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D193" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
     </row>
     <row r="194">
@@ -3983,10 +3947,10 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D194" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
     </row>
     <row r="195">
@@ -4000,7 +3964,7 @@
         <v>261</v>
       </c>
       <c r="D195" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196">
@@ -4014,7 +3978,7 @@
         <v>262</v>
       </c>
       <c r="D196" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197">
@@ -4028,7 +3992,7 @@
         <v>263</v>
       </c>
       <c r="D197" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198">
@@ -4042,7 +4006,7 @@
         <v>264</v>
       </c>
       <c r="D198" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
     </row>
     <row r="199">
@@ -4056,7 +4020,7 @@
         <v>265</v>
       </c>
       <c r="D199" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
     </row>
     <row r="200">
@@ -4070,7 +4034,7 @@
         <v>266</v>
       </c>
       <c r="D200" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
     </row>
     <row r="201">
@@ -4084,7 +4048,7 @@
         <v>267</v>
       </c>
       <c r="D201" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
     </row>
     <row r="202">
@@ -4098,7 +4062,7 @@
         <v>268</v>
       </c>
       <c r="D202" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
     </row>
     <row r="203">
@@ -4112,7 +4076,7 @@
         <v>269</v>
       </c>
       <c r="D203" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204">
@@ -4126,7 +4090,7 @@
         <v>270</v>
       </c>
       <c r="D204" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="205">
@@ -4140,7 +4104,7 @@
         <v>271</v>
       </c>
       <c r="D205" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="206">
@@ -4154,7 +4118,7 @@
         <v>272</v>
       </c>
       <c r="D206" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="207">
@@ -4168,7 +4132,7 @@
         <v>273</v>
       </c>
       <c r="D207" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="208">
@@ -4182,7 +4146,7 @@
         <v>274</v>
       </c>
       <c r="D208" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209">
@@ -4196,7 +4160,7 @@
         <v>275</v>
       </c>
       <c r="D209" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
     </row>
     <row r="210">
@@ -4207,10 +4171,10 @@
         <v>4</v>
       </c>
       <c r="C210" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D210" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="211">
@@ -4221,10 +4185,10 @@
         <v>4</v>
       </c>
       <c r="C211" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D211" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="212">
@@ -4235,10 +4199,10 @@
         <v>4</v>
       </c>
       <c r="C212" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D212" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="213">
@@ -4249,10 +4213,10 @@
         <v>4</v>
       </c>
       <c r="C213" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D213" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="214">
@@ -4263,10 +4227,10 @@
         <v>4</v>
       </c>
       <c r="C214" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D214" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
     </row>
     <row r="215">
@@ -4277,10 +4241,10 @@
         <v>4</v>
       </c>
       <c r="C215" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D215" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="216">
@@ -4291,10 +4255,10 @@
         <v>4</v>
       </c>
       <c r="C216" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D216" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="217">
@@ -4305,10 +4269,10 @@
         <v>4</v>
       </c>
       <c r="C217" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D217" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
     </row>
     <row r="218">
@@ -4319,10 +4283,10 @@
         <v>4</v>
       </c>
       <c r="C218" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D218" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
     </row>
     <row r="219">
@@ -4333,10 +4297,10 @@
         <v>4</v>
       </c>
       <c r="C219" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D219" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="220">
@@ -4347,10 +4311,10 @@
         <v>4</v>
       </c>
       <c r="C220" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D220" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="221">
@@ -4361,10 +4325,10 @@
         <v>4</v>
       </c>
       <c r="C221" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D221" t="s">
-        <v>288</v>
+        <v>215</v>
       </c>
     </row>
     <row r="222">
@@ -4378,7 +4342,7 @@
         <v>289</v>
       </c>
       <c r="D222" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
     </row>
     <row r="223">
@@ -4392,7 +4356,7 @@
         <v>290</v>
       </c>
       <c r="D223" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
     </row>
     <row r="224">
@@ -4406,7 +4370,7 @@
         <v>291</v>
       </c>
       <c r="D224" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
     </row>
     <row r="225">
@@ -4420,7 +4384,7 @@
         <v>292</v>
       </c>
       <c r="D225" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
     </row>
     <row r="226">
@@ -4434,7 +4398,7 @@
         <v>293</v>
       </c>
       <c r="D226" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="227">
@@ -4448,7 +4412,7 @@
         <v>294</v>
       </c>
       <c r="D227" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
     </row>
     <row r="228">
@@ -4462,7 +4426,7 @@
         <v>295</v>
       </c>
       <c r="D228" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
     </row>
     <row r="229">
@@ -4476,7 +4440,7 @@
         <v>296</v>
       </c>
       <c r="D229" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
     </row>
     <row r="230">
@@ -4490,175 +4454,7 @@
         <v>297</v>
       </c>
       <c r="D230" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>4</v>
-      </c>
-      <c r="B231" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" t="s">
-        <v>298</v>
-      </c>
-      <c r="D231" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>4</v>
-      </c>
-      <c r="B232" t="s">
-        <v>4</v>
-      </c>
-      <c r="C232" t="s">
-        <v>299</v>
-      </c>
-      <c r="D232" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>4</v>
-      </c>
-      <c r="B233" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" t="s">
-        <v>300</v>
-      </c>
-      <c r="D233" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" t="s">
-        <v>301</v>
-      </c>
-      <c r="D234" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>4</v>
-      </c>
-      <c r="B235" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" t="s">
-        <v>302</v>
-      </c>
-      <c r="D235" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>4</v>
-      </c>
-      <c r="B236" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" t="s">
-        <v>303</v>
-      </c>
-      <c r="D236" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>4</v>
-      </c>
-      <c r="B237" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" t="s">
-        <v>304</v>
-      </c>
-      <c r="D237" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238" t="s">
-        <v>305</v>
-      </c>
-      <c r="D238" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>4</v>
-      </c>
-      <c r="B239" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" t="s">
-        <v>306</v>
-      </c>
-      <c r="D239" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" t="s">
-        <v>307</v>
-      </c>
-      <c r="D240" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>4</v>
-      </c>
-      <c r="B241" t="s">
-        <v>4</v>
-      </c>
-      <c r="C241" t="s">
-        <v>308</v>
-      </c>
-      <c r="D241" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>4</v>
-      </c>
-      <c r="B242" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" t="s">
-        <v>309</v>
-      </c>
-      <c r="D242" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
